--- a/RaceSimulator/alltime.xlsx
+++ b/RaceSimulator/alltime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="medal mirror" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>Moswen Chisisi</t>
   </si>
@@ -120,9 +120,6 @@
     <t>t1 avg country4</t>
   </si>
   <si>
-    <t>Europe</t>
-  </si>
-  <si>
     <t>North America</t>
   </si>
   <si>
@@ -199,6 +196,30 @@
   </si>
   <si>
     <t>SEASON 3</t>
+  </si>
+  <si>
+    <t>Agnung Benny Iskandar</t>
+  </si>
+  <si>
+    <t>Drivers</t>
+  </si>
+  <si>
+    <t>Spots in WC</t>
+  </si>
+  <si>
+    <t>Middle East</t>
+  </si>
+  <si>
+    <t>West Europe</t>
+  </si>
+  <si>
+    <t>East Europe</t>
+  </si>
+  <si>
+    <t>Europe East</t>
+  </si>
+  <si>
+    <t>Europe West</t>
   </si>
 </sst>
 </file>
@@ -450,12 +471,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -762,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,36 +815,36 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F12" si="0">3*C2+2*D2+E2</f>
-        <v>11</v>
+        <f t="shared" ref="F2:F13" si="0">3*C2+2*D2+E2</f>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="9">
@@ -851,37 +872,37 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
         <v>2</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -979,9 +1000,24 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:G12">
-    <sortCondition descending="1" ref="F2:F12"/>
+  <sortState ref="A2:G13">
+    <sortCondition descending="1" ref="F2:F13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -992,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
@@ -1004,7 +1040,7 @@
       <c r="C1" s="12"/>
       <c r="D1" s="11"/>
       <c r="E1" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -1014,10 +1050,10 @@
       <c r="K1" s="12"/>
       <c r="L1" s="11"/>
       <c r="M1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="29" t="s">
         <v>59</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>60</v>
       </c>
       <c r="O1" s="30"/>
       <c r="P1" s="11"/>
@@ -1234,7 +1270,7 @@
       <c r="K9" s="20"/>
       <c r="L9" s="15"/>
       <c r="M9" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="22"/>
       <c r="O9" s="20"/>
@@ -1246,7 +1282,7 @@
       <c r="U9" s="20"/>
       <c r="V9" s="15"/>
       <c r="W9" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -1263,7 +1299,7 @@
       <c r="K10" s="20"/>
       <c r="L10" s="15"/>
       <c r="M10" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="20"/>
@@ -1275,7 +1311,7 @@
       <c r="U10" s="20"/>
       <c r="V10" s="15"/>
       <c r="W10" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -1292,7 +1328,7 @@
       <c r="K11" s="20"/>
       <c r="L11" s="15"/>
       <c r="M11" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="20"/>
@@ -1304,7 +1340,7 @@
       <c r="U11" s="20"/>
       <c r="V11" s="15"/>
       <c r="W11" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -1321,7 +1357,7 @@
       <c r="K12" s="20"/>
       <c r="L12" s="15"/>
       <c r="M12" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="20"/>
@@ -1333,7 +1369,7 @@
       <c r="U12" s="20"/>
       <c r="V12" s="15"/>
       <c r="W12" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -1374,7 +1410,7 @@
       </c>
       <c r="T13" s="15"/>
       <c r="U13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="23" t="s">
@@ -1395,7 +1431,7 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L14" s="15"/>
       <c r="M14" s="17"/>
@@ -1407,7 +1443,7 @@
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V14" s="15"/>
       <c r="W14" s="17"/>
@@ -1426,7 +1462,7 @@
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="17"/>
@@ -1438,7 +1474,7 @@
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V15" s="15"/>
       <c r="W15" s="17"/>
@@ -1457,7 +1493,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="17"/>
@@ -1469,7 +1505,7 @@
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V16" s="15"/>
       <c r="W16" s="17"/>
@@ -1492,7 +1528,7 @@
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
       <c r="K17" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" s="15"/>
       <c r="M17" s="17"/>
@@ -1504,7 +1540,7 @@
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V17" s="15"/>
       <c r="W17" s="17"/>
@@ -1536,7 +1572,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1568,18 +1604,18 @@
       <c r="J20" s="16"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M20" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N20" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="O20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="P20" s="33" t="s">
         <v>26</v>
       </c>
       <c r="Q20" s="17"/>
@@ -1616,18 +1652,18 @@
       <c r="J22" s="18"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M22" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N22" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O22" s="34" t="s">
+      <c r="O22" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P22" s="34" t="s">
+      <c r="P22" s="33" t="s">
         <v>26</v>
       </c>
       <c r="Q22" s="17"/>
@@ -1664,18 +1700,18 @@
       <c r="J24" s="18"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M24" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N24" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O24" s="34" t="s">
+      <c r="O24" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P24" s="34" t="s">
+      <c r="P24" s="33" t="s">
         <v>26</v>
       </c>
       <c r="Q24" s="17"/>
@@ -1712,18 +1748,18 @@
       <c r="J26" s="20"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M26" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N26" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="34" t="s">
+      <c r="O26" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P26" s="34" t="s">
+      <c r="P26" s="33" t="s">
         <v>26</v>
       </c>
       <c r="Q26" s="17"/>
@@ -1760,18 +1796,18 @@
       <c r="J28" s="20"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N28" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O28" s="34" t="s">
+      <c r="O28" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P28" s="34" t="s">
+      <c r="P28" s="33" t="s">
         <v>26</v>
       </c>
       <c r="Q28" s="17"/>
@@ -1808,18 +1844,18 @@
       <c r="J30" s="20"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="N30" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="N30" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O30" s="34" t="s">
+      <c r="O30" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="P30" s="34" t="s">
+      <c r="P30" s="33" t="s">
         <v>26</v>
       </c>
       <c r="Q30" s="17"/>
@@ -1846,11 +1882,11 @@
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15">
@@ -1880,7 +1916,7 @@
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
-      <c r="H33" s="35"/>
+      <c r="H33" s="34"/>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
@@ -1892,13 +1928,13 @@
       <c r="Q33" s="26"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H34" s="33"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H35" s="33"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H36" s="33"/>
+      <c r="H36" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1908,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D11"/>
+  <dimension ref="A3:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,81 +1958,198 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="32">
-        <f>SUM(D6:D11)</f>
-        <v>60</v>
+      <c r="A6" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="35">
+        <f>SUM(D6:D13)</f>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" t="s">
+      <c r="D8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" t="s">
-        <v>37</v>
       </c>
       <c r="D9">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
+      <c r="B17" s="35">
+        <f>SUM(D17:D24)</f>
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="A6:A11"/>
+  <mergeCells count="4">
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
